--- a/Frontend/src/app/(pages)/(authenticated)/(officer)/dashboardofficer/request/new/file_mau.xlsx
+++ b/Frontend/src/app/(pages)/(authenticated)/(officer)/dashboardofficer/request/new/file_mau.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\hi2\Capstone_project\Frontend\src\app\(pages)\(authenticated)\(officer)\dashboardofficer\request\new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9849A72-5549-4EBE-8EC5-79B9D5635BC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Điểm Quan Trắc</t>
   </si>
@@ -28,21 +37,12 @@
     <t>Ngày quan trắc</t>
   </si>
   <si>
-    <t>Nhiệt độ</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
     <t>DO</t>
   </si>
   <si>
-    <t>Độ dẫn</t>
-  </si>
-  <si>
-    <t>Độ kiềm</t>
-  </si>
-  <si>
     <t>N-NO2</t>
   </si>
   <si>
@@ -52,45 +52,18 @@
     <t>P-PO4</t>
   </si>
   <si>
-    <t>H2S</t>
-  </si>
-  <si>
     <t>TSS</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>Aeromonas tổng số</t>
-  </si>
-  <si>
-    <t>Edwardsiella ictaluri</t>
-  </si>
-  <si>
-    <t>Aeromonas hydrophila</t>
-  </si>
-  <si>
-    <t>Coliform</t>
-  </si>
-  <si>
-    <t>WQI (tính theo Aeromonas)</t>
-  </si>
-  <si>
     <t>Chất lượng nước</t>
   </si>
   <si>
-    <t>Chỉ tiêu vượt ngưỡng</t>
-  </si>
-  <si>
     <t>Khuyến cáo</t>
   </si>
   <si>
-    <t>Đơn vị tính</t>
-  </si>
-  <si>
-    <t>oC</t>
-  </si>
-  <si>
     <t>mg/l</t>
   </si>
   <si>
@@ -100,12 +73,6 @@
     <t>CFU/ml</t>
   </si>
   <si>
-    <t>MPN/100ml</t>
-  </si>
-  <si>
-    <t>Format:</t>
-  </si>
-  <si>
     <t>vĩ độ + dấu cách + kinh độ</t>
   </si>
   <si>
@@ -124,64 +91,87 @@
     <t>10,537278 105,491972</t>
   </si>
   <si>
-    <t>KPH</t>
-  </si>
-  <si>
-    <t>Âm tính</t>
-  </si>
-  <si>
     <t>Rất tốt</t>
   </si>
   <si>
-    <t>COD, Aeromonas</t>
-  </si>
-  <si>
     <t>Nguồn nước có dấu hiệu ô nhiễm hữu cơ, mật độ vi khuẩn aeromonas cao, cần lắng, xử lý và diệt khuẩn nước trước khi cấp vào ao nuôi.</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>WQI</t>
+  </si>
+  <si>
+    <t>Format: (file th)</t>
+  </si>
+  <si>
+    <t>(file thật không bao gồm nội dung in đỏ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -189,9 +179,27 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -205,71 +213,63 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -459,45 +459,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.13"/>
-    <col customWidth="1" min="2" max="2" width="8.0"/>
-    <col customWidth="1" min="3" max="3" width="8.63"/>
-    <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="12.25"/>
-    <col customWidth="1" min="6" max="6" width="7.25"/>
-    <col customWidth="1" min="7" max="7" width="3.38"/>
-    <col customWidth="1" min="8" max="8" width="4.13"/>
-    <col customWidth="1" min="9" max="9" width="6.38"/>
-    <col customWidth="1" min="10" max="10" width="7.13"/>
-    <col customWidth="1" min="11" max="12" width="6.13"/>
-    <col customWidth="1" min="13" max="13" width="6.0"/>
-    <col customWidth="1" min="14" max="14" width="4.38"/>
-    <col customWidth="1" min="15" max="15" width="4.25"/>
-    <col customWidth="1" min="16" max="16" width="4.75"/>
-    <col customWidth="1" min="17" max="17" width="15.5"/>
-    <col customWidth="1" min="18" max="18" width="15.75"/>
-    <col customWidth="1" min="19" max="19" width="17.63"/>
-    <col customWidth="1" min="20" max="20" width="9.75"/>
-    <col customWidth="1" min="21" max="21" width="21.38"/>
-    <col customWidth="1" min="22" max="22" width="13.88"/>
-    <col customWidth="1" min="23" max="23" width="17.0"/>
-    <col customWidth="1" min="24" max="24" width="102.63"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="10" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="102.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,200 +517,149 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17" s="18" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="H4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="I4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="E5" s="9">
+        <v>45488</v>
+      </c>
+      <c r="F5" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>333</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.216</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>32.4</v>
+      </c>
+      <c r="M5" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1490</v>
+      </c>
+      <c r="O5" s="11">
+        <v>90</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="Q5" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="10">
-        <v>45488.0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>30.0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="H6" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="I6" s="12">
-        <v>333.0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>48.0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0.216</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0.018</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="11">
-        <v>32.4</v>
-      </c>
-      <c r="P6" s="11">
-        <v>14.4</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>1490.0</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="14">
-        <v>2100.0</v>
-      </c>
-      <c r="U6" s="12">
-        <v>90.0</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>